--- a/src/main/resources/static/docs/教师信息导入模板.xlsx
+++ b/src/main/resources/static/docs/教师信息导入模板.xlsx
@@ -8,45 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IdeaProjects\ohmsubsystem\src\main\resources\static\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA35DA0-F4B7-44D7-8B8D-5A8DD3E372BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FD52C9-183D-4319-8841-7511D3325618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{14326047-C80A-4D57-A7D4-1ECCB471BAD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="教师信息" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>教职工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+  </si>
+  <si>
+    <t>手机号</t>
   </si>
 </sst>
 </file>
@@ -56,25 +44,22 @@
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,12 +70,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -99,14 +99,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,50 +419,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10F326E-EA75-485B-BC59-A232848C114E}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
